--- a/grupos/6BEV - Estadisticos 20202.xlsx
+++ b/grupos/6BEV - Estadisticos 20202.xlsx
@@ -1097,7 +1097,7 @@
         <v>-1</v>
       </c>
       <c r="N7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="O7">
         <v>7</v>
@@ -1405,10 +1405,10 @@
         <v>-1</v>
       </c>
       <c r="N11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="O11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P11">
         <v>7</v>
@@ -1793,7 +1793,7 @@
         <v>7</v>
       </c>
       <c r="O16">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P16">
         <v>8</v>
@@ -2021,10 +2021,10 @@
         <v>-1</v>
       </c>
       <c r="N19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="O19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P19">
         <v>5</v>
@@ -2329,10 +2329,10 @@
         <v>-1</v>
       </c>
       <c r="N23">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="O23">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P23">
         <v>8</v>
@@ -2483,10 +2483,10 @@
         <v>-1</v>
       </c>
       <c r="N25">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="O25">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P25">
         <v>5</v>

--- a/grupos/6BEV - Estadisticos 20202.xlsx
+++ b/grupos/6BEV - Estadisticos 20202.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="108">
   <si>
     <t>Materia</t>
   </si>
@@ -149,18 +149,18 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>Polanco Domínguez Rosa María</t>
+  </si>
+  <si>
     <t>Domínguez Burgos Marioscar</t>
   </si>
   <si>
-    <t>Polanco Domínguez Rosa María</t>
+    <t>Zarate Amezcua Eladio Jorge</t>
   </si>
   <si>
     <t>Bautista Sarao Eutiquio</t>
   </si>
   <si>
-    <t>Zarate Amezcua Eladio Jorge</t>
-  </si>
-  <si>
     <t>Hernández Mendoza Delfina</t>
   </si>
   <si>
@@ -176,172 +176,172 @@
     <t>Nombres</t>
   </si>
   <si>
+    <t>ALTAMIRANO</t>
+  </si>
+  <si>
     <t>ALVARADO</t>
   </si>
   <si>
     <t>ALVAREZ</t>
   </si>
   <si>
+    <t>APARICIO</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
     <t>CASTILLO</t>
   </si>
   <si>
     <t>CORTES</t>
   </si>
   <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
     <t>LOPEZ</t>
   </si>
   <si>
+    <t>DE LA LUZ</t>
+  </si>
+  <si>
+    <t>OFICIAL</t>
+  </si>
+  <si>
+    <t>PACHECO</t>
+  </si>
+  <si>
+    <t>RAMON</t>
+  </si>
+  <si>
     <t>RICO</t>
   </si>
   <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>DE LOS SANTOS</t>
+  </si>
+  <si>
     <t>ZAVALETA</t>
   </si>
   <si>
+    <t>NICANOR</t>
+  </si>
+  <si>
     <t>TZOMPAXTLE</t>
   </si>
   <si>
     <t>VAZQUEZ</t>
   </si>
   <si>
+    <t>ZUÑIGA</t>
+  </si>
+  <si>
+    <t>GAMBINO</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
     <t>PONCE</t>
   </si>
   <si>
-    <t>ANTONIO</t>
+    <t>MORENO</t>
+  </si>
+  <si>
+    <t>ROMAN</t>
+  </si>
+  <si>
+    <t>VEGA</t>
   </si>
   <si>
     <t>ROQUE</t>
   </si>
   <si>
+    <t>VELAZCO</t>
+  </si>
+  <si>
+    <t>DIAZ</t>
+  </si>
+  <si>
     <t>GONZALEZ</t>
   </si>
   <si>
+    <t>ALMANZA</t>
+  </si>
+  <si>
+    <t>XOTLANIHUA</t>
+  </si>
+  <si>
     <t>VELASCO</t>
   </si>
   <si>
+    <t>JESUS ANTONIO</t>
+  </si>
+  <si>
     <t>JOSE ARMANDO</t>
   </si>
   <si>
+    <t>ARMANDO</t>
+  </si>
+  <si>
     <t>JOSUE ISAAC</t>
   </si>
   <si>
+    <t>JEAN PIERRE</t>
+  </si>
+  <si>
+    <t>DAVID</t>
+  </si>
+  <si>
+    <t>DANIEL</t>
+  </si>
+  <si>
     <t>ALEXANDER</t>
   </si>
   <si>
     <t>OSWALDO VIDAL</t>
   </si>
   <si>
+    <t>JESUS DAVID</t>
+  </si>
+  <si>
+    <t>VICTOR JAVIER</t>
+  </si>
+  <si>
+    <t>LEONEL</t>
+  </si>
+  <si>
+    <t>JOSE MANUEL</t>
+  </si>
+  <si>
     <t>JOSE IMANOL</t>
   </si>
   <si>
+    <t>EMMANUEL</t>
+  </si>
+  <si>
+    <t>JOSUE</t>
+  </si>
+  <si>
+    <t>UZIEL ALEJANDRO</t>
+  </si>
+  <si>
     <t>CARLOS FERNANDO</t>
   </si>
   <si>
+    <t>MARIO</t>
+  </si>
+  <si>
+    <t>NESTOR</t>
+  </si>
+  <si>
     <t>BRENDA</t>
-  </si>
-  <si>
-    <t>ALTAMIRANO</t>
-  </si>
-  <si>
-    <t>APARICIO</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>DE LA LUZ</t>
-  </si>
-  <si>
-    <t>OFICIAL</t>
-  </si>
-  <si>
-    <t>PACHECO</t>
-  </si>
-  <si>
-    <t>RAMON</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>DE LOS SANTOS</t>
-  </si>
-  <si>
-    <t>NICANOR</t>
-  </si>
-  <si>
-    <t>ZUÑIGA</t>
-  </si>
-  <si>
-    <t>GAMBINO</t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>MORENO</t>
-  </si>
-  <si>
-    <t>ROMAN</t>
-  </si>
-  <si>
-    <t>VEGA</t>
-  </si>
-  <si>
-    <t>VELAZCO</t>
-  </si>
-  <si>
-    <t>DIAZ</t>
-  </si>
-  <si>
-    <t>ALMANZA</t>
-  </si>
-  <si>
-    <t>XOTLANIHUA</t>
-  </si>
-  <si>
-    <t>JESUS ANTONIO</t>
-  </si>
-  <si>
-    <t>ARMANDO</t>
-  </si>
-  <si>
-    <t>JEAN PIERRE</t>
-  </si>
-  <si>
-    <t>DAVID</t>
-  </si>
-  <si>
-    <t>DANIEL</t>
-  </si>
-  <si>
-    <t>JESUS DAVID</t>
-  </si>
-  <si>
-    <t>VICTOR JAVIER</t>
-  </si>
-  <si>
-    <t>LEONEL</t>
-  </si>
-  <si>
-    <t>JOSE MANUEL</t>
-  </si>
-  <si>
-    <t>EMMANUEL</t>
-  </si>
-  <si>
-    <t>JOSUE</t>
-  </si>
-  <si>
-    <t>UZIEL ALEJANDRO</t>
-  </si>
-  <si>
-    <t>MARIO</t>
-  </si>
-  <si>
-    <t>NESTOR</t>
   </si>
 </sst>
 </file>
@@ -940,7 +940,7 @@
         <v>6</v>
       </c>
       <c r="M5">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N5">
         <v>7</v>
@@ -958,7 +958,7 @@
         <v>6</v>
       </c>
       <c r="S5">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="T5">
         <v>6</v>
@@ -976,7 +976,7 @@
         <v>6</v>
       </c>
       <c r="Y5">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1076,7 +1076,7 @@
         <v>6</v>
       </c>
       <c r="G7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H7">
         <v>5</v>
@@ -1094,7 +1094,7 @@
         <v>6</v>
       </c>
       <c r="M7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N7">
         <v>5</v>
@@ -1112,7 +1112,7 @@
         <v>6</v>
       </c>
       <c r="S7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="T7">
         <v>5</v>
@@ -1130,7 +1130,7 @@
         <v>6</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1343,7 +1343,7 @@
         <v>7</v>
       </c>
       <c r="S10">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="T10">
         <v>6</v>
@@ -1361,7 +1361,7 @@
         <v>7</v>
       </c>
       <c r="Y10">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1384,7 +1384,7 @@
         <v>6</v>
       </c>
       <c r="G11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H11">
         <v>5</v>
@@ -1402,7 +1402,7 @@
         <v>6</v>
       </c>
       <c r="M11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N11">
         <v>5</v>
@@ -1420,7 +1420,7 @@
         <v>6</v>
       </c>
       <c r="S11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="T11">
         <v>5</v>
@@ -1438,7 +1438,7 @@
         <v>6</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1461,7 +1461,7 @@
         <v>6</v>
       </c>
       <c r="G12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H12">
         <v>7</v>
@@ -1479,7 +1479,7 @@
         <v>8</v>
       </c>
       <c r="M12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N12">
         <v>6</v>
@@ -1497,7 +1497,7 @@
         <v>6</v>
       </c>
       <c r="S12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="T12">
         <v>6</v>
@@ -1515,7 +1515,7 @@
         <v>7</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -2000,7 +2000,7 @@
         <v>6</v>
       </c>
       <c r="G19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H19">
         <v>5</v>
@@ -2018,7 +2018,7 @@
         <v>6</v>
       </c>
       <c r="M19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N19">
         <v>5</v>
@@ -2036,7 +2036,7 @@
         <v>6</v>
       </c>
       <c r="S19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="T19">
         <v>5</v>
@@ -2054,7 +2054,7 @@
         <v>6</v>
       </c>
       <c r="Y19">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -2190,7 +2190,7 @@
         <v>6</v>
       </c>
       <c r="S21">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="T21">
         <v>6</v>
@@ -2208,7 +2208,7 @@
         <v>6</v>
       </c>
       <c r="Y21">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -2308,7 +2308,7 @@
         <v>6</v>
       </c>
       <c r="G23">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H23">
         <v>5</v>
@@ -2326,7 +2326,7 @@
         <v>6</v>
       </c>
       <c r="M23">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N23">
         <v>5</v>
@@ -2344,7 +2344,7 @@
         <v>6</v>
       </c>
       <c r="S23">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="T23">
         <v>5</v>
@@ -2362,7 +2362,7 @@
         <v>6</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:25">
@@ -2480,7 +2480,7 @@
         <v>6</v>
       </c>
       <c r="M25">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N25">
         <v>5</v>
@@ -2498,7 +2498,7 @@
         <v>6</v>
       </c>
       <c r="S25">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="T25">
         <v>5</v>
@@ -2516,7 +2516,7 @@
         <v>6</v>
       </c>
       <c r="Y25">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2575,7 +2575,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>43</v>
@@ -2584,19 +2584,19 @@
         <v>22</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E2">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F2">
+        <v>68.18000000000001</v>
+      </c>
+      <c r="G2">
         <v>31.82</v>
       </c>
-      <c r="G2">
-        <v>68.18000000000001</v>
-      </c>
       <c r="H2">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -2607,28 +2607,28 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C3">
         <v>22</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E3">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F3">
-        <v>36.36</v>
+        <v>77.27</v>
       </c>
       <c r="G3">
-        <v>63.64</v>
+        <v>22.73</v>
       </c>
       <c r="H3">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -2639,7 +2639,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>44</v>
@@ -2648,30 +2648,30 @@
         <v>22</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F4">
-        <v>68.18000000000001</v>
+        <v>77.27</v>
       </c>
       <c r="G4">
-        <v>9.09</v>
+        <v>22.73</v>
       </c>
       <c r="H4">
-        <v>7.3</v>
+        <v>6.4</v>
       </c>
       <c r="I4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>31.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>45</v>
@@ -2680,19 +2680,19 @@
         <v>22</v>
       </c>
       <c r="D5">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>81.81999999999999</v>
+        <v>95.45</v>
       </c>
       <c r="G5">
-        <v>18.18</v>
+        <v>4.55</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -2703,7 +2703,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>46</v>
@@ -2712,16 +2712,16 @@
         <v>22</v>
       </c>
       <c r="D6">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>81.81999999999999</v>
+        <v>100</v>
       </c>
       <c r="G6">
-        <v>18.18</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>7.7</v>
@@ -2756,7 +2756,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -2772,7 +2772,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2800,146 +2800,6 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>18330051920040</v>
-      </c>
-      <c r="B2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>18330051920041</v>
-      </c>
-      <c r="B3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>18330051920049</v>
-      </c>
-      <c r="B4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>18330051920053</v>
-      </c>
-      <c r="B5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>18330051920068</v>
-      </c>
-      <c r="B6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>18330051920077</v>
-      </c>
-      <c r="B7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>17330051920470</v>
-      </c>
-      <c r="B8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2978,132 +2838,132 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>18330051920040</v>
+        <v>18330051920039</v>
       </c>
       <c r="B2" t="s">
         <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>18330051920041</v>
+        <v>18330051920040</v>
       </c>
       <c r="B3" t="s">
         <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>18330051920049</v>
+        <v>18330051920042</v>
       </c>
       <c r="B4" t="s">
         <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>18330051920053</v>
+        <v>18330051920041</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="D5" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>18330051920068</v>
+        <v>18330051920045</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D6" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>18330051920077</v>
+        <v>18330051920044</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D7" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>17330051920470</v>
+        <v>18330051920051</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D8" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>18330051920039</v>
+        <v>18330051920049</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D9" t="s">
         <v>94</v>
@@ -3114,13 +2974,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>18330051920042</v>
+        <v>18330051920053</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
         <v>95</v>
@@ -3131,13 +2991,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>18330051920045</v>
+        <v>18330051920058</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="D11" t="s">
         <v>96</v>
@@ -3148,13 +3008,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>18330051920044</v>
+        <v>18330051920066</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D12" t="s">
         <v>97</v>
@@ -3165,13 +3025,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>18330051920051</v>
+        <v>18330051920063</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D13" t="s">
         <v>98</v>
@@ -3182,13 +3042,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>18330051920058</v>
+        <v>18330051920064</v>
       </c>
       <c r="B14" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D14" t="s">
         <v>99</v>
@@ -3199,13 +3059,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>18330051920066</v>
+        <v>18330051920068</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="C15" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D15" t="s">
         <v>100</v>
@@ -3216,13 +3076,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>18330051920063</v>
+        <v>18330051920054</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D16" t="s">
         <v>101</v>
@@ -3233,16 +3093,16 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>18330051920064</v>
+        <v>18330051920071</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C17" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="D17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -3250,16 +3110,16 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>18330051920054</v>
+        <v>18330051920073</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C18" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -3267,13 +3127,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>18330051920071</v>
+        <v>18330051920075</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="D19" t="s">
         <v>103</v>
@@ -3284,13 +3144,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>18330051920073</v>
+        <v>18330051920077</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C20" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="D20" t="s">
         <v>104</v>
@@ -3301,13 +3161,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>18330051920075</v>
+        <v>18330051920080</v>
       </c>
       <c r="B21" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="C21" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D21" t="s">
         <v>105</v>
@@ -3318,13 +3178,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>18330051920080</v>
+        <v>18330051920055</v>
       </c>
       <c r="B22" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C22" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D22" t="s">
         <v>106</v>
@@ -3335,13 +3195,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>18330051920055</v>
+        <v>17330051920470</v>
       </c>
       <c r="B23" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="C23" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D23" t="s">
         <v>107</v>
@@ -3357,7 +3217,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3387,73 +3247,73 @@
         <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>18330051920040</v>
+        <v>18330051920041</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>18330051920040</v>
+        <v>18330051920041</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G3">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>18330051920042</v>
+        <v>17330051920470</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="D4" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="E4" t="s">
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -3461,65 +3321,65 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>18330051920042</v>
+        <v>17330051920470</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="D5" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>18330051920051</v>
+        <v>18330051920040</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="D6" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
         <v>43</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>18330051920051</v>
+        <v>18330051920053</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
         <v>43</v>
@@ -3530,346 +3390,47 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>18330051920053</v>
+        <v>18330051920066</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="D8" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>18330051920053</v>
+        <v>18330051920073</v>
       </c>
       <c r="B9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" t="s">
         <v>55</v>
       </c>
-      <c r="C9" t="s">
-        <v>62</v>
-      </c>
       <c r="D9" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G9">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>18330051920058</v>
-      </c>
-      <c r="B10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D10" t="s">
-        <v>99</v>
-      </c>
-      <c r="E10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>18330051920058</v>
-      </c>
-      <c r="B11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D11" t="s">
-        <v>99</v>
-      </c>
-      <c r="E11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>18330051920066</v>
-      </c>
-      <c r="B12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D12" t="s">
-        <v>100</v>
-      </c>
-      <c r="E12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>18330051920066</v>
-      </c>
-      <c r="B13" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" t="s">
-        <v>87</v>
-      </c>
-      <c r="D13" t="s">
-        <v>100</v>
-      </c>
-      <c r="E13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>18330051920063</v>
-      </c>
-      <c r="B14" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" t="s">
-        <v>88</v>
-      </c>
-      <c r="D14" t="s">
-        <v>101</v>
-      </c>
-      <c r="E14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>18330051920063</v>
-      </c>
-      <c r="B15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C15" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" t="s">
-        <v>101</v>
-      </c>
-      <c r="E15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" t="s">
-        <v>43</v>
-      </c>
-      <c r="G15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>18330051920064</v>
-      </c>
-      <c r="B16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" t="s">
-        <v>89</v>
-      </c>
-      <c r="D16" t="s">
-        <v>102</v>
-      </c>
-      <c r="E16" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" t="s">
-        <v>43</v>
-      </c>
-      <c r="G16">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
-        <v>18330051920064</v>
-      </c>
-      <c r="B17" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" t="s">
-        <v>89</v>
-      </c>
-      <c r="D17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E17" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18">
-        <v>18330051920071</v>
-      </c>
-      <c r="B18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" t="s">
-        <v>103</v>
-      </c>
-      <c r="E18" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" t="s">
-        <v>43</v>
-      </c>
-      <c r="G18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19">
-        <v>18330051920071</v>
-      </c>
-      <c r="B19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" t="s">
-        <v>103</v>
-      </c>
-      <c r="E19" t="s">
-        <v>6</v>
-      </c>
-      <c r="F19" t="s">
-        <v>43</v>
-      </c>
-      <c r="G19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20">
-        <v>18330051920073</v>
-      </c>
-      <c r="B20" t="s">
-        <v>79</v>
-      </c>
-      <c r="C20" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" t="s">
-        <v>104</v>
-      </c>
-      <c r="E20" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" t="s">
-        <v>43</v>
-      </c>
-      <c r="G20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21">
-        <v>18330051920075</v>
-      </c>
-      <c r="B21" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" t="s">
-        <v>91</v>
-      </c>
-      <c r="D21" t="s">
-        <v>105</v>
-      </c>
-      <c r="E21" t="s">
-        <v>6</v>
-      </c>
-      <c r="F21" t="s">
-        <v>43</v>
-      </c>
-      <c r="G21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22">
-        <v>18330051920055</v>
-      </c>
-      <c r="B22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" t="s">
-        <v>107</v>
-      </c>
-      <c r="E22" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" t="s">
-        <v>43</v>
-      </c>
-      <c r="G22">
         <v>5</v>
       </c>
     </row>
